--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ace-Bdkrb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ace-Bdkrb2.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.03235066666667</v>
+        <v>49.59229566666666</v>
       </c>
       <c r="H2">
-        <v>66.09705200000001</v>
+        <v>148.776887</v>
       </c>
       <c r="I2">
-        <v>0.113480625095231</v>
+        <v>0.2250252586609286</v>
       </c>
       <c r="J2">
-        <v>0.113480625095231</v>
+        <v>0.2250252586609286</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.367922333333333</v>
+        <v>2.898076333333333</v>
       </c>
       <c r="N2">
-        <v>4.103767</v>
+        <v>8.694229</v>
       </c>
       <c r="O2">
-        <v>0.6938558987102238</v>
+        <v>0.8806895615610505</v>
       </c>
       <c r="P2">
-        <v>0.6938558987102238</v>
+        <v>0.8806895615610505</v>
       </c>
       <c r="Q2">
-        <v>30.1385445327649</v>
+        <v>143.7222583872359</v>
       </c>
       <c r="R2">
-        <v>271.246900794884</v>
+        <v>1293.500325485123</v>
       </c>
       <c r="S2">
-        <v>0.07873920111164946</v>
+        <v>0.1981773963902552</v>
       </c>
       <c r="T2">
-        <v>0.07873920111164949</v>
+        <v>0.1981773963902552</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>22.03235066666667</v>
+        <v>49.59229566666666</v>
       </c>
       <c r="H3">
-        <v>66.09705200000001</v>
+        <v>148.776887</v>
       </c>
       <c r="I3">
-        <v>0.113480625095231</v>
+        <v>0.2250252586609286</v>
       </c>
       <c r="J3">
-        <v>0.113480625095231</v>
+        <v>0.2250252586609286</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.512696</v>
       </c>
       <c r="O3">
-        <v>0.0866855120783263</v>
+        <v>0.05193399155394968</v>
       </c>
       <c r="P3">
-        <v>0.08668551207832631</v>
+        <v>0.05193399155394968</v>
       </c>
       <c r="Q3">
-        <v>3.765299352465779</v>
+        <v>8.475257206372444</v>
       </c>
       <c r="R3">
-        <v>33.88769417219201</v>
+        <v>76.277314857352</v>
       </c>
       <c r="S3">
-        <v>0.009837126097348664</v>
+        <v>0.01168645988272201</v>
       </c>
       <c r="T3">
-        <v>0.009837126097348667</v>
+        <v>0.01168645988272201</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>22.03235066666667</v>
+        <v>49.59229566666666</v>
       </c>
       <c r="H4">
-        <v>66.09705200000001</v>
+        <v>148.776887</v>
       </c>
       <c r="I4">
-        <v>0.113480625095231</v>
+        <v>0.2250252586609286</v>
       </c>
       <c r="J4">
-        <v>0.113480625095231</v>
+        <v>0.2250252586609286</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.432658</v>
+        <v>0.221715</v>
       </c>
       <c r="N4">
-        <v>1.297974</v>
+        <v>0.665145</v>
       </c>
       <c r="O4">
-        <v>0.2194585892114498</v>
+        <v>0.0673764468849998</v>
       </c>
       <c r="P4">
-        <v>0.2194585892114499</v>
+        <v>0.0673764468849998</v>
       </c>
       <c r="Q4">
-        <v>9.532472774738668</v>
+        <v>10.995355833735</v>
       </c>
       <c r="R4">
-        <v>85.79225497264801</v>
+        <v>98.95820250361498</v>
       </c>
       <c r="S4">
-        <v>0.02490429788623284</v>
+        <v>0.0151614023879514</v>
       </c>
       <c r="T4">
-        <v>0.02490429788623285</v>
+        <v>0.0151614023879514</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,40 +729,40 @@
         <v>499.065186</v>
       </c>
       <c r="I5">
-        <v>0.856834420853561</v>
+        <v>0.7548368219877758</v>
       </c>
       <c r="J5">
-        <v>0.8568344208535612</v>
+        <v>0.7548368219877758</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.367922333333333</v>
+        <v>2.898076333333333</v>
       </c>
       <c r="N5">
-        <v>4.103767</v>
+        <v>8.694229</v>
       </c>
       <c r="O5">
-        <v>0.6938558987102238</v>
+        <v>0.8806895615610505</v>
       </c>
       <c r="P5">
-        <v>0.6938558987102238</v>
+        <v>0.8806895615610505</v>
       </c>
       <c r="Q5">
-        <v>227.5608045728514</v>
+        <v>482.1096681123994</v>
       </c>
       <c r="R5">
-        <v>2048.047241155662</v>
+        <v>4338.987013011594</v>
       </c>
       <c r="S5">
-        <v>0.5945196171272017</v>
+        <v>0.664776909806551</v>
       </c>
       <c r="T5">
-        <v>0.5945196171272018</v>
+        <v>0.664776909806551</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>499.065186</v>
       </c>
       <c r="I6">
-        <v>0.856834420853561</v>
+        <v>0.7548368219877758</v>
       </c>
       <c r="J6">
-        <v>0.8568344208535612</v>
+        <v>0.7548368219877758</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,10 +809,10 @@
         <v>0.512696</v>
       </c>
       <c r="O6">
-        <v>0.0866855120783263</v>
+        <v>0.05193399155394968</v>
       </c>
       <c r="P6">
-        <v>0.08668551207832631</v>
+        <v>0.05193399155394968</v>
       </c>
       <c r="Q6">
         <v>28.42985828905067</v>
@@ -821,10 +821,10 @@
         <v>255.868724601456</v>
       </c>
       <c r="S6">
-        <v>0.07427513053802708</v>
+        <v>0.03920168913772337</v>
       </c>
       <c r="T6">
-        <v>0.0742751305380271</v>
+        <v>0.03920168913772337</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,40 +853,40 @@
         <v>499.065186</v>
       </c>
       <c r="I7">
-        <v>0.856834420853561</v>
+        <v>0.7548368219877758</v>
       </c>
       <c r="J7">
-        <v>0.8568344208535612</v>
+        <v>0.7548368219877758</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.432658</v>
+        <v>0.221715</v>
       </c>
       <c r="N7">
-        <v>1.297974</v>
+        <v>0.665145</v>
       </c>
       <c r="O7">
-        <v>0.2194585892114498</v>
+        <v>0.0673764468849998</v>
       </c>
       <c r="P7">
-        <v>0.2194585892114499</v>
+        <v>0.0673764468849998</v>
       </c>
       <c r="Q7">
-        <v>71.974848414796</v>
+        <v>36.88341257133</v>
       </c>
       <c r="R7">
-        <v>647.7736357331639</v>
+        <v>331.95071314197</v>
       </c>
       <c r="S7">
-        <v>0.1880396731883322</v>
+        <v>0.05085822304350143</v>
       </c>
       <c r="T7">
-        <v>0.1880396731883322</v>
+        <v>0.05085822304350143</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.207634666666667</v>
+        <v>3.94583</v>
       </c>
       <c r="H8">
-        <v>9.622904</v>
+        <v>11.83749</v>
       </c>
       <c r="I8">
-        <v>0.01652135954794774</v>
+        <v>0.01790422089653049</v>
       </c>
       <c r="J8">
-        <v>0.01652135954794775</v>
+        <v>0.01790422089653049</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.367922333333333</v>
+        <v>2.898076333333333</v>
       </c>
       <c r="N8">
-        <v>4.103767</v>
+        <v>8.694229</v>
       </c>
       <c r="O8">
-        <v>0.6938558987102238</v>
+        <v>0.8806895615610505</v>
       </c>
       <c r="P8">
-        <v>0.6938558987102238</v>
+        <v>0.8806895615610505</v>
       </c>
       <c r="Q8">
-        <v>4.387795097707556</v>
+        <v>11.43531653835667</v>
       </c>
       <c r="R8">
-        <v>39.490155879368</v>
+        <v>102.91784884521</v>
       </c>
       <c r="S8">
-        <v>0.01146344277705602</v>
+        <v>0.01576806045145764</v>
       </c>
       <c r="T8">
-        <v>0.01146344277705602</v>
+        <v>0.01576806045145764</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.207634666666667</v>
+        <v>3.94583</v>
       </c>
       <c r="H9">
-        <v>9.622904</v>
+        <v>11.83749</v>
       </c>
       <c r="I9">
-        <v>0.01652135954794774</v>
+        <v>0.01790422089653049</v>
       </c>
       <c r="J9">
-        <v>0.01652135954794775</v>
+        <v>0.01790422089653049</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -995,22 +995,22 @@
         <v>0.512696</v>
       </c>
       <c r="O9">
-        <v>0.0866855120783263</v>
+        <v>0.05193399155394968</v>
       </c>
       <c r="P9">
-        <v>0.08668551207832631</v>
+        <v>0.05193399155394968</v>
       </c>
       <c r="Q9">
-        <v>0.5481804876871111</v>
+        <v>0.6743370858933334</v>
       </c>
       <c r="R9">
-        <v>4.933624389184001</v>
+        <v>6.069033773040001</v>
       </c>
       <c r="S9">
-        <v>0.001432162512643995</v>
+        <v>0.0009298376568204638</v>
       </c>
       <c r="T9">
-        <v>0.001432162512643996</v>
+        <v>0.0009298376568204638</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.207634666666667</v>
+        <v>3.94583</v>
       </c>
       <c r="H10">
-        <v>9.622904</v>
+        <v>11.83749</v>
       </c>
       <c r="I10">
-        <v>0.01652135954794774</v>
+        <v>0.01790422089653049</v>
       </c>
       <c r="J10">
-        <v>0.01652135954794775</v>
+        <v>0.01790422089653049</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.432658</v>
+        <v>0.221715</v>
       </c>
       <c r="N10">
-        <v>1.297974</v>
+        <v>0.665145</v>
       </c>
       <c r="O10">
-        <v>0.2194585892114498</v>
+        <v>0.0673764468849998</v>
       </c>
       <c r="P10">
-        <v>0.2194585892114499</v>
+        <v>0.0673764468849998</v>
       </c>
       <c r="Q10">
-        <v>1.387808799610667</v>
+        <v>0.87484969845</v>
       </c>
       <c r="R10">
-        <v>12.490279196496</v>
+        <v>7.873647286050001</v>
       </c>
       <c r="S10">
-        <v>0.003625754258247728</v>
+        <v>0.00120632278825239</v>
       </c>
       <c r="T10">
-        <v>0.003625754258247729</v>
+        <v>0.00120632278825239</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,46 +1095,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.555722</v>
+        <v>0.4922746666666666</v>
       </c>
       <c r="H11">
-        <v>7.667166</v>
+        <v>1.476824</v>
       </c>
       <c r="I11">
-        <v>0.01316359450326017</v>
+        <v>0.002233698454765135</v>
       </c>
       <c r="J11">
-        <v>0.01316359450326017</v>
+        <v>0.002233698454765135</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>1.367922333333333</v>
+        <v>2.898076333333333</v>
       </c>
       <c r="N11">
-        <v>4.103767</v>
+        <v>8.694229</v>
       </c>
       <c r="O11">
-        <v>0.6938558987102238</v>
+        <v>0.8806895615610505</v>
       </c>
       <c r="P11">
-        <v>0.6938558987102238</v>
+        <v>0.8806895615610505</v>
       </c>
       <c r="Q11">
-        <v>3.496029201591333</v>
+        <v>1.426649560966222</v>
       </c>
       <c r="R11">
-        <v>31.464262814322</v>
+        <v>12.839846048696</v>
       </c>
       <c r="S11">
-        <v>0.009133637694316547</v>
+        <v>0.001967194912786703</v>
       </c>
       <c r="T11">
-        <v>0.009133637694316549</v>
+        <v>0.001967194912786703</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.555722</v>
+        <v>0.4922746666666666</v>
       </c>
       <c r="H12">
-        <v>7.667166</v>
+        <v>1.476824</v>
       </c>
       <c r="I12">
-        <v>0.01316359450326017</v>
+        <v>0.002233698454765135</v>
       </c>
       <c r="J12">
-        <v>0.01316359450326017</v>
+        <v>0.002233698454765135</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1181,22 +1181,22 @@
         <v>0.512696</v>
       </c>
       <c r="O12">
-        <v>0.0866855120783263</v>
+        <v>0.05193399155394968</v>
       </c>
       <c r="P12">
-        <v>0.08668551207832631</v>
+        <v>0.05193399155394968</v>
       </c>
       <c r="Q12">
-        <v>0.4367694821706666</v>
+        <v>0.08412908416711111</v>
       </c>
       <c r="R12">
-        <v>3.930925339536</v>
+        <v>0.7571617575040001</v>
       </c>
       <c r="S12">
-        <v>0.001141092930306549</v>
+        <v>0.000116004876683843</v>
       </c>
       <c r="T12">
-        <v>0.001141092930306549</v>
+        <v>0.000116004876683843</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.555722</v>
+        <v>0.4922746666666666</v>
       </c>
       <c r="H13">
-        <v>7.667166</v>
+        <v>1.476824</v>
       </c>
       <c r="I13">
-        <v>0.01316359450326017</v>
+        <v>0.002233698454765135</v>
       </c>
       <c r="J13">
-        <v>0.01316359450326017</v>
+        <v>0.002233698454765135</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.432658</v>
+        <v>0.221715</v>
       </c>
       <c r="N13">
-        <v>1.297974</v>
+        <v>0.665145</v>
       </c>
       <c r="O13">
-        <v>0.2194585892114498</v>
+        <v>0.0673764468849998</v>
       </c>
       <c r="P13">
-        <v>0.2194585892114499</v>
+        <v>0.0673764468849998</v>
       </c>
       <c r="Q13">
-        <v>1.105753569076</v>
+        <v>0.10914467772</v>
       </c>
       <c r="R13">
-        <v>9.951782121683999</v>
+        <v>0.9823020994799999</v>
       </c>
       <c r="S13">
-        <v>0.002888863878637073</v>
+        <v>0.0001504986652945893</v>
       </c>
       <c r="T13">
-        <v>0.002888863878637073</v>
+        <v>0.0001504986652945893</v>
       </c>
     </row>
   </sheetData>
